--- a/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_7/Expr_3.xlsx
+++ b/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_7/Expr_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Poisson/Expr2d_1_6/Poisson_Seed_Scale_Expr1_6_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256B11E2-6385-F94D-BE13-1BD13EB9025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BEDD11-5550-EF4A-9228-8A910C66E7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50280" yWindow="720" windowWidth="39060" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
